--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/141.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/141.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1790362639925405</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.603886019987208</v>
+        <v>-1.603191090545154</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04282815914087084</v>
+        <v>-0.0427415880891993</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1451598642739925</v>
+        <v>-0.1437212107971236</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.174951082193705</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.585277178925631</v>
+        <v>-1.584142311139173</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07368208195660692</v>
+        <v>-0.07398114558965405</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1187793038009929</v>
+        <v>-0.1170840852073521</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1786823212268617</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.63411741824047</v>
+        <v>-1.63313759133746</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1215621696074525</v>
+        <v>-0.1218801214699553</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1143783463378362</v>
+        <v>-0.1128216414268698</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1914431071405971</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.728430282960125</v>
+        <v>-1.727681049858386</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1481961471589815</v>
+        <v>-0.1483204946695642</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.125108434687743</v>
+        <v>-0.123454140591256</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2069812694135236</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.760414351504955</v>
+        <v>-1.760685869803379</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1089794607517749</v>
+        <v>-0.1088063186484318</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1153809965181047</v>
+        <v>-0.1138557719895644</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2144352694005481</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.621320642784295</v>
+        <v>-1.622010063159425</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04453282184923948</v>
+        <v>-0.04439903022392892</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1164985500942282</v>
+        <v>-0.115177948051457</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2052781496607522</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.331782186449716</v>
+        <v>-1.331573628916143</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.009902827161503052</v>
+        <v>-0.01058752547926885</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1110367037433148</v>
+        <v>-0.109325744958461</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1750138251284867</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9100434381362126</v>
+        <v>-0.9091430991988286</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01085668274901127</v>
+        <v>-0.01286513114779095</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07090551222663251</v>
+        <v>-0.06922445980508338</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1211238735798044</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3821363130814175</v>
+        <v>-0.379898057890928</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05840937442262635</v>
+        <v>-0.06141575094431066</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02380613805995203</v>
+        <v>-0.02230137577998857</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.03938662972555889</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1838321683455495</v>
+        <v>0.1876523127529463</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1191255880076791</v>
+        <v>-0.1236619111152677</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05893847312770383</v>
+        <v>0.06078322353786823</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.07199607733462654</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8641956374512866</v>
+        <v>0.8691443535686559</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2489853135532284</v>
+        <v>-0.2545290088984494</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1387192063099505</v>
+        <v>0.1405151621273546</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2080078888746731</v>
       </c>
       <c r="E13" t="n">
-        <v>1.559029064339141</v>
+        <v>1.565540781443962</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4550684890668849</v>
+        <v>-0.4620240795639126</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2572538642777414</v>
+        <v>0.2588939922021367</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3603045897985557</v>
       </c>
       <c r="E14" t="n">
-        <v>2.284056900030906</v>
+        <v>2.291941161809501</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6867719738179526</v>
+        <v>-0.6945917008125745</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3782502881512466</v>
+        <v>0.3800981865996536</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.513576732505624</v>
       </c>
       <c r="E15" t="n">
-        <v>3.017386112568412</v>
+        <v>3.026269876489033</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9352749646506626</v>
+        <v>-0.9438911453206625</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4902732290142165</v>
+        <v>0.4920203902388603</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6540634552061726</v>
       </c>
       <c r="E16" t="n">
-        <v>3.63782509970711</v>
+        <v>3.64653729554351</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.221117624088428</v>
+        <v>-1.231642302943005</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6369324606414081</v>
+        <v>0.6397767131935984</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7817574500461785</v>
       </c>
       <c r="E17" t="n">
-        <v>4.232291197325226</v>
+        <v>4.241404768037557</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.476824900439331</v>
+        <v>-1.488642636002057</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7867649148171418</v>
+        <v>0.7898342521036782</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9073709406503566</v>
       </c>
       <c r="E18" t="n">
-        <v>4.760532014433737</v>
+        <v>4.769332355340929</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.71841637331041</v>
+        <v>-1.730663816093251</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9241531738198724</v>
+        <v>0.9279245236345088</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.040392510261676</v>
       </c>
       <c r="E19" t="n">
-        <v>5.190659497654212</v>
+        <v>5.199557427746925</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.008866186716223</v>
+        <v>-2.022473582019867</v>
       </c>
       <c r="G19" t="n">
-        <v>1.069408380390864</v>
+        <v>1.073123065517133</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.176292825226804</v>
       </c>
       <c r="E20" t="n">
-        <v>5.528516405964919</v>
+        <v>5.537681919308254</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.263021480213523</v>
+        <v>-2.27706723984245</v>
       </c>
       <c r="G20" t="n">
-        <v>1.220402460678117</v>
+        <v>1.224312324175428</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.302863142526278</v>
       </c>
       <c r="E21" t="n">
-        <v>5.813117951325539</v>
+        <v>5.822157543139169</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.485969483602356</v>
+        <v>-2.500669248176183</v>
       </c>
       <c r="G21" t="n">
-        <v>1.357098151267476</v>
+        <v>1.360690062902284</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.408156115636717</v>
       </c>
       <c r="E22" t="n">
-        <v>6.018574667228918</v>
+        <v>6.027154645459128</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.691245187306786</v>
+        <v>-2.705662415448339</v>
       </c>
       <c r="G22" t="n">
-        <v>1.472805870893411</v>
+        <v>1.476558332478591</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.486398749528093</v>
       </c>
       <c r="E23" t="n">
-        <v>6.159052725766762</v>
+        <v>6.168290643989676</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.811049291695905</v>
+        <v>-2.825015563359206</v>
       </c>
       <c r="G23" t="n">
-        <v>1.57204935051054</v>
+        <v>1.575937177740153</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.536681235308373</v>
       </c>
       <c r="E24" t="n">
-        <v>6.263614815994766</v>
+        <v>6.273005414072447</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.883473059505192</v>
+        <v>-2.896776669118426</v>
       </c>
       <c r="G24" t="n">
-        <v>1.619576857878214</v>
+        <v>1.623307283195697</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.556487442372704</v>
       </c>
       <c r="E25" t="n">
-        <v>6.281003005227776</v>
+        <v>6.289995376467767</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.961660885336683</v>
+        <v>-2.975025094686087</v>
       </c>
       <c r="G25" t="n">
-        <v>1.6695141885206</v>
+        <v>1.672750371833994</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.546513705373313</v>
       </c>
       <c r="E26" t="n">
-        <v>6.269023145695556</v>
+        <v>6.277492942587275</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.022708429946769</v>
+        <v>-3.036066343219688</v>
       </c>
       <c r="G26" t="n">
-        <v>1.688054559750401</v>
+        <v>1.691282872968189</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.508498261055172</v>
       </c>
       <c r="E27" t="n">
-        <v>6.172291800596022</v>
+        <v>6.180166618259889</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.036505494554531</v>
+        <v>-3.0497563745272</v>
       </c>
       <c r="G27" t="n">
-        <v>1.694416745038698</v>
+        <v>1.697539598975359</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.445718415956027</v>
       </c>
       <c r="E28" t="n">
-        <v>6.00698359041966</v>
+        <v>6.014227226415886</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.046624076475812</v>
+        <v>-3.060071708838644</v>
       </c>
       <c r="G28" t="n">
-        <v>1.679831883860726</v>
+        <v>1.682743819235132</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.364551713994194</v>
       </c>
       <c r="E29" t="n">
-        <v>5.835560315957045</v>
+        <v>5.84219795459157</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.002848243683758</v>
+        <v>-3.015681221579722</v>
       </c>
       <c r="G29" t="n">
-        <v>1.642777899726187</v>
+        <v>1.645623726297498</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.270735044485608</v>
       </c>
       <c r="E30" t="n">
-        <v>5.641571903371463</v>
+        <v>5.647567342204497</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.973473898842045</v>
+        <v>-2.985869299422288</v>
       </c>
       <c r="G30" t="n">
-        <v>1.572587665050025</v>
+        <v>1.575143872103017</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.172655379273928</v>
       </c>
       <c r="E31" t="n">
-        <v>5.401249089912152</v>
+        <v>5.406654271574699</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.871416073036029</v>
+        <v>-2.882979604510665</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497979158700372</v>
+        <v>1.500431480491359</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.07582007804495</v>
       </c>
       <c r="E32" t="n">
-        <v>5.169789578124886</v>
+        <v>5.175334847489228</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.809951413358798</v>
+        <v>-2.821629061219728</v>
       </c>
       <c r="G32" t="n">
-        <v>1.42454487061521</v>
+        <v>1.427016080635652</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9837161493456261</v>
       </c>
       <c r="E33" t="n">
-        <v>4.87480895067841</v>
+        <v>4.880022102008158</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.684928648573006</v>
+        <v>-2.695872016513849</v>
       </c>
       <c r="G33" t="n">
-        <v>1.350347183256217</v>
+        <v>1.352410722324242</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8992532808830443</v>
       </c>
       <c r="E34" t="n">
-        <v>4.613402151089277</v>
+        <v>4.617757461997916</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.60819836444784</v>
+        <v>-2.619033125069313</v>
       </c>
       <c r="G34" t="n">
-        <v>1.249551720785485</v>
+        <v>1.25161525985351</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8214145303631963</v>
       </c>
       <c r="E35" t="n">
-        <v>4.297919924587858</v>
+        <v>4.301248975029409</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.533851932281884</v>
+        <v>-2.543983893365696</v>
       </c>
       <c r="G35" t="n">
-        <v>1.157860384912356</v>
+        <v>1.159881425464106</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.750526589226614</v>
       </c>
       <c r="E36" t="n">
-        <v>3.958142712949164</v>
+        <v>3.961314361478585</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.437249656750297</v>
+        <v>-2.446931448365417</v>
       </c>
       <c r="G36" t="n">
-        <v>1.077154128486784</v>
+        <v>1.078451120242736</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6836728680301307</v>
       </c>
       <c r="E37" t="n">
-        <v>3.674443080545049</v>
+        <v>3.677488807544766</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.368245445482035</v>
+        <v>-2.37755734260365</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9907546448994684</v>
+        <v>0.9922562591411893</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6190218858598074</v>
       </c>
       <c r="E38" t="n">
-        <v>3.372714633125557</v>
+        <v>3.374527903153295</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.300182497648311</v>
+        <v>-2.309518792066307</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9008844491496844</v>
+        <v>0.902024038993506</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5558391053428519</v>
       </c>
       <c r="E39" t="n">
-        <v>3.053903356182587</v>
+        <v>3.055039797988166</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.221743615766973</v>
+        <v>-2.230330677083229</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8123033750602455</v>
+        <v>0.8131627895004757</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4928979545692264</v>
       </c>
       <c r="E40" t="n">
-        <v>2.774820321861248</v>
+        <v>2.776652480118442</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.148151138760121</v>
+        <v>-2.156956988734237</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7451572933646795</v>
+        <v>0.7457569946498951</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.431470934667337</v>
       </c>
       <c r="E41" t="n">
-        <v>2.477480239751941</v>
+        <v>2.47885750648308</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.087318447760091</v>
+        <v>-2.095487606999642</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6865219330579863</v>
+        <v>0.6867674800409092</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3713216376727282</v>
       </c>
       <c r="E42" t="n">
-        <v>2.200619720429878</v>
+        <v>2.201447654487682</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.000995304100158</v>
+        <v>-2.008751283320368</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6142681593137995</v>
+        <v>0.6140839990766073</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3132215297339864</v>
       </c>
       <c r="E43" t="n">
-        <v>1.947739382420831</v>
+        <v>1.948554724325665</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.93813055441453</v>
+        <v>-1.945901486816392</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5442809731042857</v>
+        <v>0.5444257828634453</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.25842120531079</v>
       </c>
       <c r="E44" t="n">
-        <v>1.746020961930541</v>
+        <v>1.747037778282902</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.886078529082677</v>
+        <v>-1.893384338834194</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4777408887704204</v>
+        <v>0.4778416259941837</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2069932544666292</v>
       </c>
       <c r="E45" t="n">
-        <v>1.532679984248567</v>
+        <v>1.532964881709523</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.800809978234016</v>
+        <v>-1.807997736551435</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4268685907699822</v>
+        <v>0.4270291407203549</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.159642711150914</v>
       </c>
       <c r="E46" t="n">
-        <v>1.336999501107587</v>
+        <v>1.337654293062048</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.741052342293835</v>
+        <v>-1.747932379873041</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3745450471397047</v>
+        <v>0.3741200619769536</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1155685705081413</v>
       </c>
       <c r="E47" t="n">
-        <v>1.182117593590721</v>
+        <v>1.182369436650129</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.709503490036045</v>
+        <v>-1.716172609052996</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3272205882386783</v>
+        <v>0.3273402136918971</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.07405563667397272</v>
       </c>
       <c r="E48" t="n">
-        <v>1.004996369908997</v>
+        <v>1.00480591359532</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.646967710346769</v>
+        <v>-1.653691920032965</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2561237185486475</v>
+        <v>0.2561205705104049</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.0346417737361424</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8586897185649768</v>
+        <v>0.8585291686146042</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.596754139348595</v>
+        <v>-1.603530291665794</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2214134488857247</v>
+        <v>0.2212670651074438</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.003324010591301249</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7590432900527941</v>
+        <v>0.7587820028786583</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.546204515268023</v>
+        <v>-1.553358432174335</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1795461142782477</v>
+        <v>0.1794249148059076</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.03984710476589355</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6436000056392378</v>
+        <v>0.6433450145415871</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.509052154938402</v>
+        <v>-1.516391019091467</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1455520233155168</v>
+        <v>0.1455016547036352</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.07495615848620615</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5366469803659774</v>
+        <v>0.5367870680677731</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.464909575691085</v>
+        <v>-1.471922617886041</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1059780345677749</v>
+        <v>0.1057340616039733</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1082949050648022</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4686855567655775</v>
+        <v>0.4693497928347665</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.42460602908062</v>
+        <v>-1.430974510445403</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0742017365469566</v>
+        <v>0.07409627726582946</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1393363151672274</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3780787200670248</v>
+        <v>0.3796259808632634</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.37345276866703</v>
+        <v>-1.380503587320896</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04313374713072363</v>
+        <v>0.04274968646512626</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1670403356387904</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2886272134035067</v>
+        <v>0.290832414192449</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.341786651984703</v>
+        <v>-1.348734372386124</v>
       </c>
       <c r="G55" t="n">
-        <v>0.008349498569099724</v>
+        <v>0.007749797283884162</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1911120343608242</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2249786021954708</v>
+        <v>0.2274702744644898</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.321594347687097</v>
+        <v>-1.328354759813083</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.00857120698488267</v>
+        <v>-0.008886010809142808</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2115899935573559</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1491895815048427</v>
+        <v>0.1517520846343202</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.328535772012033</v>
+        <v>-1.335259194688669</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04454383998308859</v>
+        <v>-0.04491688251483685</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2291252050662289</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08591243880943372</v>
+        <v>0.08849697820660944</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.308330088551896</v>
+        <v>-1.314643479247433</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07453834835859449</v>
+        <v>-0.07474139682524228</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2442187661590245</v>
       </c>
       <c r="E59" t="n">
-        <v>0.04911187175342364</v>
+        <v>0.05209778602653104</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.318684773341373</v>
+        <v>-1.324959600568438</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09964080530509786</v>
+        <v>-0.09997764539705621</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2575822676160461</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.003918406462317837</v>
+        <v>-0.0002257576037464231</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.322386866314672</v>
+        <v>-1.328295734096035</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1041787024318077</v>
+        <v>-0.1043361043439378</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2700796758858959</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.04200337312130928</v>
+        <v>-0.03783379646898376</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.302339371776225</v>
+        <v>-1.308175834678009</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.135331688880591</v>
+        <v>-0.1354906648118423</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2822185793475927</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.09600167309665067</v>
+        <v>-0.09191237141951149</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.327183689586836</v>
+        <v>-1.333199590668447</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1427846694199497</v>
+        <v>-0.1427531890375237</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2951146016291303</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1388212892725146</v>
+        <v>-0.1341181201380681</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.367229884070968</v>
+        <v>-1.373446472590545</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1617972463861407</v>
+        <v>-0.1618869654760549</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3087791154386922</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.1927786647507022</v>
+        <v>-0.1873750571072769</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.408891809183115</v>
+        <v>-1.415390934134966</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1774099420503222</v>
+        <v>-0.1773768876487749</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3230497075799005</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.245292664694657</v>
+        <v>-0.2393318542822913</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.441662100279035</v>
+        <v>-1.448051830901955</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2028460910505414</v>
+        <v>-0.2028319248784496</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3377049679756194</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3120483896481405</v>
+        <v>-0.3060498027768636</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.48343027168187</v>
+        <v>-1.489464273983376</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2086321853404427</v>
+        <v>-0.2084228407973097</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3515768847680906</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.2988769976410963</v>
+        <v>-0.2923542624024263</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.52968203655173</v>
+        <v>-1.535606644524306</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2416944569833636</v>
+        <v>-0.2414677982298963</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3645479339460858</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3267953747956066</v>
+        <v>-0.3209793741424006</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.561155335891698</v>
+        <v>-1.56782602892777</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2520310405529452</v>
+        <v>-0.2518390102201465</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3759782927107013</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3550285557743771</v>
+        <v>-0.3493935673201206</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.620816169655918</v>
+        <v>-1.627755232952173</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2584609086634586</v>
+        <v>-0.2586702532065915</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3851917315772403</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3815334637579593</v>
+        <v>-0.3759441218582206</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.638588419554524</v>
+        <v>-1.645252029504551</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2688478608449218</v>
+        <v>-0.2690918338087234</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3915239061621905</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.3887770997541851</v>
+        <v>-0.383735516508659</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.677387203885026</v>
+        <v>-1.684578897250248</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2875692442736722</v>
+        <v>-0.2879359907289352</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3941192392364675</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.3871936365181566</v>
+        <v>-0.3823865821217043</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.71033299811297</v>
+        <v>-1.71779935781486</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2851326626738987</v>
+        <v>-0.2854773728614636</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3930415285582855</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.3484161014457929</v>
+        <v>-0.344087548862216</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.734616965116397</v>
+        <v>-1.741563898508258</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2877234981475597</v>
+        <v>-0.2883735680446569</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3880530891500971</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3067738515726618</v>
+        <v>-0.3023555798991708</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.767246381500961</v>
+        <v>-1.774412103550682</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2925163863719202</v>
+        <v>-0.2932246949765056</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3790532520206334</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2439689146136431</v>
+        <v>-0.2400858094413943</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.786258171457591</v>
+        <v>-1.793101219587446</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2966182802020298</v>
+        <v>-0.2977090754530912</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3662067336615517</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.136488592934747</v>
+        <v>-0.1327377053686874</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.79426756775633</v>
+        <v>-1.800990990432966</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2798659946940266</v>
+        <v>-0.2811692825264636</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3492366679498746</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.0505140945101821</v>
+        <v>-0.04732040971306301</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.780553139152437</v>
+        <v>-1.787271052762148</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2664443336466957</v>
+        <v>-0.2677775278424374</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3284193421421784</v>
       </c>
       <c r="E78" t="n">
-        <v>0.08447221131344358</v>
+        <v>0.08747071773952139</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.78436856150247</v>
+        <v>-1.791018005280404</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2391650082554334</v>
+        <v>-0.2409405018242606</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3035143279193884</v>
       </c>
       <c r="E79" t="n">
-        <v>0.212159790471598</v>
+        <v>0.2152196836434065</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.812826827215586</v>
+        <v>-1.819198456618611</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2224788315505248</v>
+        <v>-0.2241457177999823</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2745308905289695</v>
       </c>
       <c r="E80" t="n">
-        <v>0.359004756355103</v>
+        <v>0.3623479729687457</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.768885722415795</v>
+        <v>-1.774379836158695</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1963737244237529</v>
+        <v>-0.1981602361264292</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2417602238613147</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4886567113766407</v>
+        <v>0.491710308471964</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.746784132924052</v>
+        <v>-1.751807614949683</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.167619543115832</v>
+        <v>-0.1692533749637421</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2054339559232884</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6679296191971825</v>
+        <v>0.6716458783425735</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.706872517074791</v>
+        <v>-1.711393099991166</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.14155063842885</v>
+        <v>-0.1430727149191477</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1667265034063701</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8406420153201432</v>
+        <v>0.8438388481555048</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.636780658593711</v>
+        <v>-1.640484325586131</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1234084940367382</v>
+        <v>-0.1255397159269794</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1264326464736818</v>
       </c>
       <c r="E84" t="n">
-        <v>1.0229826864081</v>
+        <v>1.02679496071989</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.556175139391902</v>
+        <v>-1.558868286108448</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1075958979441515</v>
+        <v>-0.1098058207904577</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.08549694047389626</v>
       </c>
       <c r="E85" t="n">
-        <v>1.17037855898406</v>
+        <v>1.174497767024504</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.451369863209657</v>
+        <v>-1.454209393704483</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.08801667409429229</v>
+        <v>-0.09065315612247093</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.04496342312097869</v>
       </c>
       <c r="E86" t="n">
-        <v>1.331707648821774</v>
+        <v>1.335504182942352</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.334010997525477</v>
+        <v>-1.336353924987533</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05793402064799354</v>
+        <v>-0.0605972610012343</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.006849429695847436</v>
       </c>
       <c r="E87" t="n">
-        <v>1.47297429093939</v>
+        <v>1.477427191033549</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.203336717084655</v>
+        <v>-1.205154709169757</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.03417420201195966</v>
+        <v>-0.03700271437293699</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.02528923051411164</v>
       </c>
       <c r="E88" t="n">
-        <v>1.562657178413739</v>
+        <v>1.56622862779997</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.056935624593357</v>
+        <v>-1.058145258288076</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01999386374816176</v>
+        <v>-0.02273265701922496</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.04862385023531576</v>
       </c>
       <c r="E89" t="n">
-        <v>1.668009426240637</v>
+        <v>1.671848458877489</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9104605532033573</v>
+        <v>-0.9107903102092697</v>
       </c>
       <c r="G89" t="n">
-        <v>0.004088628807738762</v>
+        <v>0.001283726733580936</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.05889324160783877</v>
       </c>
       <c r="E90" t="n">
-        <v>1.711672716665518</v>
+        <v>1.715267776338568</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.718428646385552</v>
+        <v>-0.7177880206031827</v>
       </c>
       <c r="G90" t="n">
-        <v>0.00515896181022323</v>
+        <v>0.002032959835320064</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.05307266833574545</v>
       </c>
       <c r="E91" t="n">
-        <v>1.728357319351305</v>
+        <v>1.730978061188271</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5333114055676208</v>
+        <v>-0.5324881935671805</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01264319445168755</v>
+        <v>-0.01536152547417384</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.029419505238147</v>
       </c>
       <c r="E92" t="n">
-        <v>1.70056643774562</v>
+        <v>1.702844043414142</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3690184377244975</v>
+        <v>-0.3678756998424333</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.01590141403277997</v>
+        <v>-0.01859141271108285</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.01166339081560036</v>
       </c>
       <c r="E93" t="n">
-        <v>1.656722135121789</v>
+        <v>1.658470870365554</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2164314500864876</v>
+        <v>-0.2151738088085683</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03073339621279635</v>
+        <v>-0.03294017102085992</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.06573724935085103</v>
       </c>
       <c r="E94" t="n">
-        <v>1.5577698490421</v>
+        <v>1.558907864866801</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.07766907239086156</v>
+        <v>-0.07604468465767926</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.03716011628506706</v>
+        <v>-0.03958882778923403</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1261020176255445</v>
       </c>
       <c r="E95" t="n">
-        <v>1.488106910771575</v>
+        <v>1.489509361808653</v>
       </c>
       <c r="F95" t="n">
-        <v>0.02899433336407954</v>
+        <v>0.03060927698253405</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.07226861278567891</v>
+        <v>-0.0743085415668846</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1852854992962778</v>
       </c>
       <c r="E96" t="n">
-        <v>1.403728467736008</v>
+        <v>1.404883797771043</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1112179442225849</v>
+        <v>0.1131366735314504</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1012950994015849</v>
+        <v>-0.1032657713414533</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2363962437060466</v>
       </c>
       <c r="E97" t="n">
-        <v>1.323472380779129</v>
+        <v>1.324449846653457</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1743864795986241</v>
+        <v>0.1763319672325517</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1211749609036126</v>
+        <v>-0.1233659955204631</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2760800797975966</v>
       </c>
       <c r="E98" t="n">
-        <v>1.229062713883514</v>
+        <v>1.230277856645158</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2075683766947639</v>
+        <v>0.2097389490630375</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1416482276143706</v>
+        <v>-0.1436818603190911</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3035547537178975</v>
       </c>
       <c r="E99" t="n">
-        <v>1.143144880147316</v>
+        <v>1.144700011039161</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2282541359868975</v>
+        <v>0.2302909167298606</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1439919420859873</v>
+        <v>-0.146000390484767</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.322637571932519</v>
       </c>
       <c r="E100" t="n">
-        <v>1.054842407442347</v>
+        <v>1.05629837512955</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2402481616912087</v>
+        <v>0.2422880904724145</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1584792140784389</v>
+        <v>-0.1604467379800647</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3372932039658699</v>
       </c>
       <c r="E101" t="n">
-        <v>0.96429066141304</v>
+        <v>0.9657907016356395</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2350853789733425</v>
+        <v>0.2377376011927342</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1723982651681009</v>
+        <v>-0.1745373571539485</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3544083655952277</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9030377073076237</v>
+        <v>0.9043236809297264</v>
       </c>
       <c r="F102" t="n">
-        <v>0.241134334456501</v>
+        <v>0.2436669312226739</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1981193116292754</v>
+        <v>-0.2005070986362885</v>
       </c>
     </row>
   </sheetData>
